--- a/sources/fact_extraction_viewpoint/economy-table27.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table27.xlsx
@@ -371,8 +371,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="\E\ \ \ #,##0.0;\E\ \ \ \-#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="\E\ \ \ #,##0.0;\E\ \ \ \-#,##0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -439,7 +439,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,12 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1F1F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,14 +542,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -568,22 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,7 +854,7 @@
   <dimension ref="B1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="B232" sqref="B232:I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -871,33 +865,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -917,10 +911,10 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -943,54 +937,54 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
@@ -1533,54 +1527,54 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="11"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="11"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="11"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
@@ -1808,54 +1802,54 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="2:9" ht="15" customHeight="1">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="11"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="2:9" ht="15" customHeight="1">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="11"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="2" t="s">
@@ -2083,54 +2077,54 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="15" customHeight="1">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15" customHeight="1">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="11"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="17"/>
     </row>
     <row r="61" spans="2:9" ht="15" customHeight="1">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="11"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1">
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="11"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="17"/>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="2" t="s">
@@ -2777,54 +2771,54 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="15" customHeight="1">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="10" t="s">
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="15" customHeight="1">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="11"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="2:9" ht="15" customHeight="1">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="11"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" spans="2:9" ht="15" customHeight="1">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="11"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="2" t="s">
@@ -3052,54 +3046,54 @@
       </c>
     </row>
     <row r="101" spans="2:9" ht="15" customHeight="1">
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="10" t="s">
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1">
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="11"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="17"/>
     </row>
     <row r="103" spans="2:9" ht="15" customHeight="1">
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="11"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="17"/>
     </row>
     <row r="104" spans="2:9" ht="15" customHeight="1">
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="11"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="17"/>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
@@ -3327,54 +3321,54 @@
       </c>
     </row>
     <row r="114" spans="2:9" ht="15" customHeight="1">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="10" t="s">
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="15" customHeight="1">
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="11"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="17"/>
     </row>
     <row r="116" spans="2:9" ht="15" customHeight="1">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="11"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="17"/>
     </row>
     <row r="117" spans="2:9" ht="15" customHeight="1">
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="11"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="17"/>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="2" t="s">
@@ -3403,54 +3397,54 @@
       </c>
     </row>
     <row r="119" spans="2:9" ht="15" customHeight="1">
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="10" t="s">
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="15" customHeight="1">
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="11"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="17"/>
     </row>
     <row r="121" spans="2:9" ht="15" customHeight="1">
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="11"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" spans="2:9" ht="15" customHeight="1">
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="11"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="2" t="s">
@@ -3479,54 +3473,54 @@
       </c>
     </row>
     <row r="124" spans="2:9" ht="15" customHeight="1">
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="10" t="s">
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="15" customHeight="1">
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="11"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="17"/>
     </row>
     <row r="126" spans="2:9" ht="15" customHeight="1">
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="11"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="17"/>
     </row>
     <row r="127" spans="2:9" ht="15" customHeight="1">
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="11"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="17"/>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="2" t="s">
@@ -3555,54 +3549,54 @@
       </c>
     </row>
     <row r="129" spans="2:9" ht="15" customHeight="1">
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="10" t="s">
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="15" customHeight="1">
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="11"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="17"/>
     </row>
     <row r="131" spans="2:9" ht="15" customHeight="1">
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="11"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="17"/>
     </row>
     <row r="132" spans="2:9" ht="15" customHeight="1">
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="11"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="17"/>
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="2" t="s">
@@ -3830,54 +3824,54 @@
       </c>
     </row>
     <row r="142" spans="2:9" ht="15" customHeight="1">
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="10" t="s">
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="15" customHeight="1">
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="11"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="17"/>
     </row>
     <row r="144" spans="2:9" ht="15" customHeight="1">
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="11"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="17"/>
     </row>
     <row r="145" spans="2:9" ht="15" customHeight="1">
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="11"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="17"/>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="2" t="s">
@@ -4105,54 +4099,54 @@
       </c>
     </row>
     <row r="155" spans="2:9" ht="15" customHeight="1">
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="10" t="s">
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="15" customHeight="1">
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="11"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="17"/>
     </row>
     <row r="157" spans="2:9" ht="15" customHeight="1">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="11"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="17"/>
     </row>
     <row r="158" spans="2:9" ht="15" customHeight="1">
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="11"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="17"/>
     </row>
     <row r="159" spans="2:9">
       <c r="B159" s="2" t="s">
@@ -4380,54 +4374,54 @@
       </c>
     </row>
     <row r="168" spans="2:9" ht="15" customHeight="1">
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="10" t="s">
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="15" customHeight="1">
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="11"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="17"/>
     </row>
     <row r="170" spans="2:9" ht="15" customHeight="1">
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="11"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="17"/>
     </row>
     <row r="171" spans="2:9" ht="15" customHeight="1">
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="11"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="17"/>
     </row>
     <row r="172" spans="2:9">
       <c r="B172" s="2" t="s">
@@ -4655,54 +4649,54 @@
       </c>
     </row>
     <row r="181" spans="2:9" ht="15" customHeight="1">
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="10" t="s">
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="15" customHeight="1">
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="11"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="17"/>
     </row>
     <row r="183" spans="2:9" ht="15" customHeight="1">
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="11"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="17"/>
     </row>
     <row r="184" spans="2:9" ht="15" customHeight="1">
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="11"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="17"/>
     </row>
     <row r="185" spans="2:9">
       <c r="B185" s="2" t="s">
@@ -4936,54 +4930,54 @@
       </c>
     </row>
     <row r="194" spans="2:9" ht="15" customHeight="1">
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="10" t="s">
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="15" customHeight="1">
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="11"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="17"/>
     </row>
     <row r="196" spans="2:9" ht="15" customHeight="1">
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="11"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="17"/>
     </row>
     <row r="197" spans="2:9" ht="15" customHeight="1">
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="11"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="17"/>
     </row>
     <row r="198" spans="2:9">
       <c r="B198" s="2" t="s">
@@ -5211,54 +5205,54 @@
       </c>
     </row>
     <row r="207" spans="2:9" ht="15" customHeight="1">
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9"/>
-      <c r="H207" s="9"/>
-      <c r="I207" s="10" t="s">
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="208" spans="2:9" ht="15" customHeight="1">
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-      <c r="I208" s="11"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="17"/>
     </row>
     <row r="209" spans="2:9" ht="15" customHeight="1">
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9"/>
-      <c r="H209" s="9"/>
-      <c r="I209" s="11"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="17"/>
     </row>
     <row r="210" spans="2:9" ht="15" customHeight="1">
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-      <c r="I210" s="11"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="17"/>
     </row>
     <row r="211" spans="2:9">
       <c r="B211" s="2" t="s">
@@ -5801,54 +5795,54 @@
       </c>
     </row>
     <row r="232" spans="2:9" ht="15" customHeight="1">
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="9"/>
-      <c r="I232" s="10" t="s">
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="233" spans="2:9" ht="15" customHeight="1">
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="11"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="17"/>
     </row>
     <row r="234" spans="2:9" ht="15" customHeight="1">
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="11"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="17"/>
     </row>
     <row r="235" spans="2:9" ht="15" customHeight="1">
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="I235" s="11"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+      <c r="I235" s="17"/>
     </row>
     <row r="236" spans="2:9">
       <c r="B236" s="2" t="s">
@@ -6495,20 +6489,80 @@
       </c>
     </row>
     <row r="262" spans="2:10">
-      <c r="B262" s="13" t="s">
+      <c r="B262" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J262" s="14" t="s">
+      <c r="J262" s="10" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="I168:I171"/>
-    <mergeCell ref="I181:I184"/>
-    <mergeCell ref="I194:I197"/>
-    <mergeCell ref="I207:I210"/>
-    <mergeCell ref="I232:I235"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B181:H181"/>
+    <mergeCell ref="B182:H182"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B184:H184"/>
+    <mergeCell ref="B194:H194"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="B197:H197"/>
+    <mergeCell ref="B207:H207"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="B209:H209"/>
+    <mergeCell ref="B210:H210"/>
     <mergeCell ref="B232:H232"/>
     <mergeCell ref="B233:H233"/>
     <mergeCell ref="B234:H234"/>
@@ -6525,71 +6579,11 @@
     <mergeCell ref="I129:I132"/>
     <mergeCell ref="I142:I145"/>
     <mergeCell ref="I155:I158"/>
-    <mergeCell ref="B197:H197"/>
-    <mergeCell ref="B207:H207"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="B209:H209"/>
-    <mergeCell ref="B210:H210"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B184:H184"/>
-    <mergeCell ref="B194:H194"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B181:H181"/>
-    <mergeCell ref="B182:H182"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I168:I171"/>
+    <mergeCell ref="I181:I184"/>
+    <mergeCell ref="I194:I197"/>
+    <mergeCell ref="I207:I210"/>
+    <mergeCell ref="I232:I235"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B262" r:id="rId1"/>
